--- a/Atomic_bombs.xlsx
+++ b/Atomic_bombs.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjturner/Documents/Teaching/XBR209/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1066FD64-137D-3848-8413-1A9A25ACE93C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C517152-76BD-7043-A1AD-7DA84CDD5EE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15520" xr2:uid="{5A7B1F78-A2E0-9B4C-9C9F-D61A92B8E12D}"/>
+    <workbookView xWindow="780" yWindow="900" windowWidth="27640" windowHeight="15520" xr2:uid="{5A7B1F78-A2E0-9B4C-9C9F-D61A92B8E12D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Atomic_bombs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -12402,7 +12402,7 @@
   <dimension ref="A1:K2319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Atomic_bombs.xlsx
+++ b/Atomic_bombs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjturner/Documents/Teaching/XBR209/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C517152-76BD-7043-A1AD-7DA84CDD5EE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404D06AA-DE0B-B14B-B2F6-8CAEF016B0E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="900" windowWidth="27640" windowHeight="15520" xr2:uid="{5A7B1F78-A2E0-9B4C-9C9F-D61A92B8E12D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11844" uniqueCount="4005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11845" uniqueCount="4005">
   <si>
     <t>Country</t>
   </si>
@@ -12402,7 +12402,7 @@
   <dimension ref="A1:K2319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58335,8 +58335,8 @@
       <c r="J1312">
         <v>-116.02723</v>
       </c>
-      <c r="K1312" t="e">
-        <v>#VALUE!</v>
+      <c r="K1312" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="1313" spans="1:11" x14ac:dyDescent="0.2">
